--- a/MWS/Application/MwsSimulation/Doc/MIC WEB SERVICE 課金シミュレーション更新履歴.xlsx
+++ b/MWS/Application/MwsSimulation/Doc/MIC WEB SERVICE 課金シミュレーション更新履歴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\MwsSimulation2\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\MwsSimulation\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A441F7-CBF3-4A8A-BF5E-A6AABB9C0959}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A00A2C8-F76B-4553-A4D9-281947447D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{740EF727-6484-4DBB-9275-475E60969A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{740EF727-6484-4DBB-9275-475E60969A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +174,74 @@
       <t>ヨヤクレンケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス情報マスタにフィールドを追加して、おまとめプランに含めるかどうかの判断するように仕様変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.3.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・価格対応</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ApoDent 5,000→￥8,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ESET月額版（1ライセンス）￥450→￥480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ESET月額版（3ライセンス）￥1,320→￥1,410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ESET月額版（5ライセンス）￥2,150→￥2,300</t>
+  </si>
+  <si>
+    <t>・サービス追加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     オンライン資格確認連携 \0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     資格情報一括照会 \600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     特定健診情報閲覧 \300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     薬剤情報等閲覧 \300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     オンライン資格確認医療扶助連携 \700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     オンライン資格確認訪問診療連携 \1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     オンライン資格電子商法千連携 \2,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Microsoft 365 Business Standard \2,500</t>
+  </si>
+  <si>
+    <t>・サービス廃止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     問診伝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     りすとん</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     スマート検査票</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     デンタルパス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     デンタルパス認証SMSサービス</t>
   </si>
 </sst>
 </file>
@@ -181,9 +249,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,10 +271,16 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,21 +311,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,61 +653,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369102C-FF95-49D1-A0D6-3DE4101846FE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>43314.748611111114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>43314.753472222219</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>43314.773611111108</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45569</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -633,28 +731,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0DE6-86B2-4C54-840F-0F954AB0A6AE}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -662,122 +761,231 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>43314.748611111114</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>43314.753472222219</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>1002</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>43314.770138888889</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>1003</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>43766.728472222225</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45569</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D22" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D35" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D38" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
